--- a/CR - Cost Report/BOM/FR/FRA0600.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0600.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>System</t>
   </si>
@@ -57,25 +52,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
     <t>Clutch actuation system</t>
-  </si>
-  <si>
-    <t>FR_A0006</t>
   </si>
   <si>
     <r>
@@ -108,14 +88,41 @@
     <t>FR_06005</t>
   </si>
   <si>
-    <t>FR_06006</t>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Clutch cable sheath</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Clutch cable</t>
+  </si>
+  <si>
+    <t>Lock plate</t>
+  </si>
+  <si>
+    <t>Cable protectors</t>
+  </si>
+  <si>
+    <t>In the lever, prevent cable from removing</t>
+  </si>
+  <si>
+    <t>On the lever, prevent cable from cutting</t>
+  </si>
+  <si>
+    <t>FR_A0600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -332,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -509,34 +516,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -559,134 +566,118 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/FR/FRA0600.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0600.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>System</t>
   </si>
@@ -126,12 +131,15 @@
   <si>
     <t>FR_06006</t>
   </si>
+  <si>
+    <t>Drilled tube</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,41 +218,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,34 +519,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,130 +565,132 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
